--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-14.12459899240202</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.90422189182825</v>
+        <v>-9.136335328909212</v>
       </c>
       <c r="F2" t="n">
-        <v>6.220516950744531</v>
+        <v>5.482477654950749</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.07219223615907</v>
+        <v>-15.75626187628537</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.86545774908329</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.148550447460542</v>
+        <v>-9.467138544811105</v>
       </c>
       <c r="F3" t="n">
-        <v>6.141360887763455</v>
+        <v>5.379441231586365</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.60653830098739</v>
+        <v>-15.28967838761194</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.5189882179585</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.188887832515899</v>
+        <v>-9.539787733279843</v>
       </c>
       <c r="F4" t="n">
-        <v>6.252566908101077</v>
+        <v>5.535396743037006</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.79499881704016</v>
+        <v>-14.54456924828362</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.11390232602038</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.15496885920687</v>
+        <v>-10.47193351100506</v>
       </c>
       <c r="F5" t="n">
-        <v>6.333739185719779</v>
+        <v>5.599496657750097</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.76113893853758</v>
+        <v>-13.64537679681104</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.64465267053538</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.75089120765371</v>
+        <v>-11.06061581598042</v>
       </c>
       <c r="F6" t="n">
-        <v>6.548479136929769</v>
+        <v>5.818007192178505</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.9825920577515</v>
+        <v>-12.88446524795276</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.12832505929214</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.59760970933666</v>
+        <v>-11.84290709537924</v>
       </c>
       <c r="F7" t="n">
-        <v>6.870628340653281</v>
+        <v>6.124314709463528</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.60293827659324</v>
+        <v>-11.63326004997468</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.5639743640513</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.40172585757264</v>
+        <v>-12.63894529276187</v>
       </c>
       <c r="F8" t="n">
-        <v>7.158344787903053</v>
+        <v>6.374587170585964</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.84740766420292</v>
+        <v>-10.94381938232939</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.95899007040667</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.12972335708681</v>
+        <v>-13.34655807675148</v>
       </c>
       <c r="F9" t="n">
-        <v>7.225534486086791</v>
+        <v>6.4413055458674</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.574495428113257</v>
+        <v>-9.817436199644327</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.31844840902342</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.18591870423738</v>
+        <v>-14.37199960452683</v>
       </c>
       <c r="F10" t="n">
-        <v>7.368214402455922</v>
+        <v>6.612631420854227</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.918963824828033</v>
+        <v>-9.220374820850251</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.647414669885466</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.08821403148346</v>
+        <v>-15.28144332912449</v>
       </c>
       <c r="F11" t="n">
-        <v>7.598167609567999</v>
+        <v>6.831665647396304</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.066877478979976</v>
+        <v>-8.478211449661325</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.961493236991771</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.37484700095125</v>
+        <v>-16.48611848280308</v>
       </c>
       <c r="F12" t="n">
-        <v>7.521760930183685</v>
+        <v>6.782517142528464</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.619644413906613</v>
+        <v>-8.057765236202135</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.26154192635642</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.37851602910081</v>
+        <v>-17.39757842203836</v>
       </c>
       <c r="F13" t="n">
-        <v>7.435875423541963</v>
+        <v>6.649420791839478</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.382830840105473</v>
+        <v>-7.741520661060242</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.569960546909959</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.774718481051</v>
+        <v>-18.72258493113525</v>
       </c>
       <c r="F14" t="n">
-        <v>7.413539954893977</v>
+        <v>6.701632895572281</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.435642006415116</v>
+        <v>-6.856376250536825</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.888543715950111</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.87359473546559</v>
+        <v>-19.77813875544657</v>
       </c>
       <c r="F15" t="n">
-        <v>7.403380327888798</v>
+        <v>6.6655243243348</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.980226252065675</v>
+        <v>-6.383835764070406</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.231055620602684</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.85178614228516</v>
+        <v>-20.73539557002221</v>
       </c>
       <c r="F16" t="n">
-        <v>7.282538372659666</v>
+        <v>6.591500444067681</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.362492127084514</v>
+        <v>-5.791029383699891</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.599825897552788</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.95646228685864</v>
+        <v>-21.76466005022735</v>
       </c>
       <c r="F17" t="n">
-        <v>7.605342191525264</v>
+        <v>6.89246630179328</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.483582836067638</v>
+        <v>-5.812775698719999</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.998620230237711</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.82466525750486</v>
+        <v>-22.60504187733491</v>
       </c>
       <c r="F18" t="n">
-        <v>8.007563919428772</v>
+        <v>7.246927308930172</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.932108855768453</v>
+        <v>-5.290274984609553</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.433249560773028</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.441325813653</v>
+        <v>-23.22545992439862</v>
       </c>
       <c r="F19" t="n">
-        <v>8.3184537427084</v>
+        <v>7.555565256121022</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.058917717739533</v>
+        <v>-4.431681764249157</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.901719554410371</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.3410550495421</v>
+        <v>-24.11245034962272</v>
       </c>
       <c r="F20" t="n">
-        <v>8.530968002435298</v>
+        <v>7.760852564679286</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.652440991412464</v>
+        <v>-3.933035225916337</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.416133600505144</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.43178470823526</v>
+        <v>-24.31731870449005</v>
       </c>
       <c r="F21" t="n">
-        <v>8.372394030416311</v>
+        <v>7.630008090079077</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.624685309388004</v>
+        <v>-3.869773218585117</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.976440548003326</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.10112869101851</v>
+        <v>-24.99898254424736</v>
       </c>
       <c r="F22" t="n">
-        <v>8.772913758950395</v>
+        <v>8.016807085235031</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.052672689284029</v>
+        <v>-4.197198620353844</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.596063801011262</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.22766579798379</v>
+        <v>-25.16856714295623</v>
       </c>
       <c r="F23" t="n">
-        <v>8.385564887075088</v>
+        <v>7.698899787632238</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.941820161123135</v>
+        <v>-4.0680692374259</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.283061335242042</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.6428489057006</v>
+        <v>-25.57446780795827</v>
       </c>
       <c r="F24" t="n">
-        <v>8.351184499812716</v>
+        <v>7.672610443526053</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.832276863246413</v>
+        <v>-3.914640540423711</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.047733856591176</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.65124107182215</v>
+        <v>-25.66264446759729</v>
       </c>
       <c r="F25" t="n">
-        <v>8.471424209111127</v>
+        <v>7.787587047082091</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.706145617669224</v>
+        <v>-3.813162101097493</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.897337058319996</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.98374628709347</v>
+        <v>-25.9876477933403</v>
       </c>
       <c r="F26" t="n">
-        <v>8.365821694389766</v>
+        <v>7.694317481637635</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.528404514289951</v>
+        <v>-3.617759481184731</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.830329987637643</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.95965644986469</v>
+        <v>-25.92599613925861</v>
       </c>
       <c r="F27" t="n">
-        <v>8.277003511911495</v>
+        <v>7.642314854750299</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.664197879364333</v>
+        <v>-3.706996617353936</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.844951460647009</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.90042687180872</v>
+        <v>-25.88293555521218</v>
       </c>
       <c r="F28" t="n">
-        <v>8.160036878323515</v>
+        <v>7.490994018505629</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.914535802000978</v>
+        <v>-3.909796388372273</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.930354087936765</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73831797802247</v>
+        <v>-25.8112159202452</v>
       </c>
       <c r="F29" t="n">
-        <v>8.10463025269733</v>
+        <v>7.441845513637789</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.710924308206454</v>
+        <v>-3.702217926816706</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.076864045645228</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.62175720582258</v>
+        <v>-25.67187454110071</v>
       </c>
       <c r="F30" t="n">
-        <v>8.210049475178907</v>
+        <v>7.539723569682534</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.857453361611052</v>
+        <v>-3.865138543379145</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.270756694968843</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.29784054121544</v>
+        <v>-25.33359562027619</v>
       </c>
       <c r="F31" t="n">
-        <v>8.027752250410714</v>
+        <v>7.375127138356353</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.280766789392581</v>
+        <v>-4.229353316133123</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.494508595332089</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.86165737974049</v>
+        <v>-24.91986575817481</v>
       </c>
       <c r="F32" t="n">
-        <v>8.191667881989124</v>
+        <v>7.489580049798723</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.163917986530176</v>
+        <v>-4.169573861357802</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.733941669154399</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.73347064261715</v>
+        <v>-24.75973380211765</v>
       </c>
       <c r="F33" t="n">
-        <v>8.227148022690203</v>
+        <v>7.483609959702895</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.303848519302544</v>
+        <v>-4.305890918545853</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.971889319200324</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.3468287550953</v>
+        <v>-24.35218350695757</v>
       </c>
       <c r="F34" t="n">
-        <v>8.351132130601348</v>
+        <v>7.591673827358503</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.328475140947831</v>
+        <v>-4.345455857733549</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.197301255056218</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.18356773865898</v>
+        <v>-24.2141382657944</v>
       </c>
       <c r="F35" t="n">
-        <v>8.244875000737899</v>
+        <v>7.489553865193039</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.485517313534335</v>
+        <v>-4.506504274989622</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.401676956790761</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.85250267670025</v>
+        <v>-23.84517098710888</v>
       </c>
       <c r="F36" t="n">
-        <v>8.405046233703576</v>
+        <v>7.623697600109364</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.390846871685814</v>
+        <v>-4.463928106148328</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.581379783411375</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.25070188427747</v>
+        <v>-23.28433601027786</v>
       </c>
       <c r="F37" t="n">
-        <v>8.358699481643866</v>
+        <v>7.594108995687064</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.509148920163651</v>
+        <v>-4.578341740682173</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.739680889064227</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76266011124644</v>
+        <v>-22.77079043131116</v>
       </c>
       <c r="F38" t="n">
-        <v>8.363726925935088</v>
+        <v>7.545667475172677</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.482126407098328</v>
+        <v>-4.526614052154513</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.878381045296972</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59187102067613</v>
+        <v>-22.57760041057865</v>
       </c>
       <c r="F39" t="n">
-        <v>8.525155019973571</v>
+        <v>7.718826272557346</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.729440007778534</v>
+        <v>-4.722579641089469</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.00821339987467</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.88565911309058</v>
+        <v>-21.87860236185889</v>
       </c>
       <c r="F40" t="n">
-        <v>8.809938791386797</v>
+        <v>7.972293255573162</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.674753458808643</v>
+        <v>-4.699393172756772</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.134253868213251</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.19230384689561</v>
+        <v>-21.2210414516332</v>
       </c>
       <c r="F41" t="n">
-        <v>8.790195598701473</v>
+        <v>7.966873042196688</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.712341460267239</v>
+        <v>-4.719751703675656</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.266340202063485</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.49249407539967</v>
+        <v>-20.50663376246873</v>
       </c>
       <c r="F42" t="n">
-        <v>8.776448680717662</v>
+        <v>7.989915495198126</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.050829857937225</v>
+        <v>-5.059601700841181</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.40962019515241</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.62846754935996</v>
+        <v>-19.70283182950096</v>
       </c>
       <c r="F43" t="n">
-        <v>8.902160972603914</v>
+        <v>8.093292318436395</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.205947462005995</v>
+        <v>-5.213789751408189</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.568638186686925</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.94842715515502</v>
+        <v>-19.00541794942506</v>
       </c>
       <c r="F44" t="n">
-        <v>8.649400973941551</v>
+        <v>7.896436452908202</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.985800389722372</v>
+        <v>-5.029450127396687</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.746743484665815</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.47606996092839</v>
+        <v>-18.55368113217414</v>
       </c>
       <c r="F45" t="n">
-        <v>8.714914857361549</v>
+        <v>7.92463727322928</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.166670553480817</v>
+        <v>-5.238992434378512</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.941696661276845</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.81392674470809</v>
+        <v>-17.85587448301298</v>
       </c>
       <c r="F46" t="n">
-        <v>8.771316498003705</v>
+        <v>8.037021600822657</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.300041842529481</v>
+        <v>-5.377666106078075</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.155836180159245</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.67793699509108</v>
+        <v>-17.69250872815392</v>
       </c>
       <c r="F47" t="n">
-        <v>8.626279967123063</v>
+        <v>7.900730728240288</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.600588746564144</v>
+        <v>-5.668747275158171</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.382229254011325</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.02209117653766</v>
+        <v>-17.06499465294999</v>
       </c>
       <c r="F48" t="n">
-        <v>8.558383284585872</v>
+        <v>7.859908927979786</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.695115173081406</v>
+        <v>-5.761519333094641</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.620995404353283</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.14150288740316</v>
+        <v>-16.21623375202373</v>
       </c>
       <c r="F49" t="n">
-        <v>8.479515252267314</v>
+        <v>7.806675624625328</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.899446743532225</v>
+        <v>-6.006829811440062</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.865470181251866</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.58497527820707</v>
+        <v>-15.65767683588717</v>
       </c>
       <c r="F50" t="n">
-        <v>8.227200391901569</v>
+        <v>7.553391933849295</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.141143746293331</v>
+        <v>-6.22935968284088</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.113437249752813</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.86283003806314</v>
+        <v>-14.93998297870944</v>
       </c>
       <c r="F51" t="n">
-        <v>8.035555262904383</v>
+        <v>7.407255649529949</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.072893571579412</v>
+        <v>-6.186979898542213</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.361343210189053</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.16127899028925</v>
+        <v>-14.28112593050241</v>
       </c>
       <c r="F52" t="n">
-        <v>7.89240402363295</v>
+        <v>7.291676800043192</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.224253684732608</v>
+        <v>-6.391651868866917</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.605996123620874</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.68423475164528</v>
+        <v>-13.78851494377963</v>
       </c>
       <c r="F53" t="n">
-        <v>7.950926617335465</v>
+        <v>7.326266664151031</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.253056750984404</v>
+        <v>-6.430064685404541</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.849338501311392</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.24823488241012</v>
+        <v>-13.32661849952353</v>
       </c>
       <c r="F54" t="n">
-        <v>7.73432755912195</v>
+        <v>7.106420714832767</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.478532390524611</v>
+        <v>-6.647279081851618</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.085555430816089</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.65715668601471</v>
+        <v>-12.73087944331647</v>
       </c>
       <c r="F55" t="n">
-        <v>7.67342216630224</v>
+        <v>7.09317130435694</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.82562243116161</v>
+        <v>-6.957200074720958</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.320340566720605</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.3606422112553</v>
+        <v>-12.45692300635335</v>
       </c>
       <c r="F56" t="n">
-        <v>7.732625559752525</v>
+        <v>7.119696309914278</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.759126625028484</v>
+        <v>-6.929339654273765</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.54965413520275</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.90569777980816</v>
+        <v>-12.00852472632708</v>
       </c>
       <c r="F57" t="n">
-        <v>7.359259267312181</v>
+        <v>6.781783973569328</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.001334227600417</v>
+        <v>-7.173746763723107</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.776356006504916</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.47414929353918</v>
+        <v>-11.58336528384486</v>
       </c>
       <c r="F58" t="n">
-        <v>7.529694865705771</v>
+        <v>6.923625982556588</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.794989625865851</v>
+        <v>-7.882786608722466</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.998582685668931</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.48754271934627</v>
+        <v>-11.51867621550389</v>
       </c>
       <c r="F59" t="n">
-        <v>7.376960060754195</v>
+        <v>6.780422374073789</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.776922247944269</v>
+        <v>-7.91422122784545</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.216654797481629</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.2714280763379</v>
+        <v>-11.27786948933603</v>
       </c>
       <c r="F60" t="n">
-        <v>7.223439717632115</v>
+        <v>6.641643963951492</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.02413111020174</v>
+        <v>-8.151885801331304</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.432050741635351</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.33114206959901</v>
+        <v>-11.32460901048099</v>
       </c>
       <c r="F61" t="n">
-        <v>7.044965445293705</v>
+        <v>6.476602394328693</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.493882936162871</v>
+        <v>-8.614659429877795</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.641168757252798</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.44389298167196</v>
+        <v>-11.37030114739861</v>
       </c>
       <c r="F62" t="n">
-        <v>7.102257362529098</v>
+        <v>6.469611104611212</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.738067476463904</v>
+        <v>-8.830656242160591</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.848998413915796</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.08124928525899</v>
+        <v>-11.01703153982032</v>
       </c>
       <c r="F63" t="n">
-        <v>7.446008865941458</v>
+        <v>6.766911117541127</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.787373088965845</v>
+        <v>-8.868335889739079</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.050271418099083</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.79823297472939</v>
+        <v>-10.79969931264767</v>
       </c>
       <c r="F64" t="n">
-        <v>7.286832647991752</v>
+        <v>6.615328435239623</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.04461065520008</v>
+        <v>-9.078794657919826</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.248897205208864</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.81428413801335</v>
+        <v>-10.84266825057421</v>
       </c>
       <c r="F65" t="n">
-        <v>7.262402410889091</v>
+        <v>6.584535338955883</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.108815308335902</v>
+        <v>-9.1467175250627</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.440998077189064</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.51958949334894</v>
+        <v>-10.56433898446196</v>
       </c>
       <c r="F66" t="n">
-        <v>7.077774756215071</v>
+        <v>6.431014995833803</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.518473464253512</v>
+        <v>-9.511207236176354</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.628118150262187</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.75467488317497</v>
+        <v>-10.80078597378353</v>
       </c>
       <c r="F67" t="n">
-        <v>6.837557183675081</v>
+        <v>6.18349191830813</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.571156890888618</v>
+        <v>-9.559530925965165</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.808113727543171</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93427509355777</v>
+        <v>-10.92387980510144</v>
       </c>
       <c r="F68" t="n">
-        <v>6.808387532943716</v>
+        <v>6.152122760699354</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.398155201138049</v>
+        <v>-9.387393328202151</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.97931975598649</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.74041736538033</v>
+        <v>-10.72217978752181</v>
       </c>
       <c r="F69" t="n">
-        <v>6.785266526125227</v>
+        <v>6.164089125496692</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.391465034385927</v>
+        <v>-9.412033042150279</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.14254253836266</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.01119237275291</v>
+        <v>-10.96717605059903</v>
       </c>
       <c r="F70" t="n">
-        <v>6.590112659966458</v>
+        <v>5.941336684947564</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.534262781480633</v>
+        <v>-9.493768288791175</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.28946283081194</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.96347092889482</v>
+        <v>-10.94100453721842</v>
       </c>
       <c r="F71" t="n">
-        <v>6.222323688536689</v>
+        <v>5.650399531198728</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.498704086962505</v>
+        <v>-9.468997651814629</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.42039149648771</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.98869979647082</v>
+        <v>-10.99677774732417</v>
       </c>
       <c r="F72" t="n">
-        <v>6.490166020072722</v>
+        <v>5.849795303478216</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.805561480966881</v>
+        <v>-9.715957760318108</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.52554720792701</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43131127864106</v>
+        <v>-11.43121963252116</v>
       </c>
       <c r="F73" t="n">
-        <v>6.623759878269694</v>
+        <v>5.952386588545981</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.505551361348729</v>
+        <v>-9.484420384562183</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.60357780594885</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.558620831474</v>
+        <v>-11.55745561652109</v>
       </c>
       <c r="F74" t="n">
-        <v>6.560419317121424</v>
+        <v>5.939870347029292</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.594670666792357</v>
+        <v>-9.543021532081749</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.64560124783337</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.09941149265434</v>
+        <v>-12.07231042577197</v>
       </c>
       <c r="F75" t="n">
-        <v>6.529940436105885</v>
+        <v>5.884463721403106</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.796763453457242</v>
+        <v>-9.676052421256527</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.6511519614873</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.97108074019974</v>
+        <v>-12.01344743219557</v>
       </c>
       <c r="F76" t="n">
-        <v>6.418236908260278</v>
+        <v>5.778154222328291</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.861596537129468</v>
+        <v>-9.703271318864475</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.61462955271025</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.69409007233122</v>
+        <v>-12.6787720780064</v>
       </c>
       <c r="F77" t="n">
-        <v>6.366941265726395</v>
+        <v>5.759484598475989</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.608234292536386</v>
+        <v>-9.469573713139665</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.53136424231953</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.38857127657058</v>
+        <v>-13.37394717429637</v>
       </c>
       <c r="F78" t="n">
-        <v>6.427375335643803</v>
+        <v>5.822982267258361</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.955831749630335</v>
+        <v>-8.892609019207638</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.39987742992578</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.61961114481852</v>
+        <v>-13.67135192564902</v>
       </c>
       <c r="F79" t="n">
-        <v>6.634312274360125</v>
+        <v>6.009835613415476</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.211380408797986</v>
+        <v>-9.06282204845292</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.21487234279227</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.21991941471734</v>
+        <v>-14.25834532355781</v>
       </c>
       <c r="F80" t="n">
-        <v>6.627687569122212</v>
+        <v>6.024577546415259</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.601567127036068</v>
+        <v>-8.503898547836792</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.977781309968819</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.81736047029383</v>
+        <v>-14.8436759990057</v>
       </c>
       <c r="F81" t="n">
-        <v>6.74698463261602</v>
+        <v>6.09975354933245</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.460903425304563</v>
+        <v>-8.370199951217085</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.683566080179382</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.660256019547</v>
+        <v>-15.69529102195145</v>
       </c>
       <c r="F82" t="n">
-        <v>6.773928591864292</v>
+        <v>6.10211016384396</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.359451170584029</v>
+        <v>-8.260041315106802</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.339097916447818</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.67894191905602</v>
+        <v>-16.72373068707756</v>
       </c>
       <c r="F83" t="n">
-        <v>6.94693028161486</v>
+        <v>6.270215332331723</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.234602970685328</v>
+        <v>-8.109126340250226</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.943298194922917</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.57847477040249</v>
+        <v>-17.67266079704587</v>
       </c>
       <c r="F84" t="n">
-        <v>6.904615958830401</v>
+        <v>6.20412538758669</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.878911287081315</v>
+        <v>-7.753879794942831</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.507576520998276</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.41797941321965</v>
+        <v>-18.53615053866907</v>
       </c>
       <c r="F85" t="n">
-        <v>7.095344626628667</v>
+        <v>6.440231977034379</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.635145700471218</v>
+        <v>-7.547518917551544</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.040177018324544</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.69476697095046</v>
+        <v>-19.8117205122356</v>
       </c>
       <c r="F86" t="n">
-        <v>6.964971474930759</v>
+        <v>6.313707962371938</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.687449450323912</v>
+        <v>-7.54741417912881</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.554936110448121</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.73595853904441</v>
+        <v>-20.86703867509577</v>
       </c>
       <c r="F87" t="n">
-        <v>7.063556515328957</v>
+        <v>6.378357753804381</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.12810699601685</v>
+        <v>-7.054083115749731</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.069266353151376</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.04864519116723</v>
+        <v>-22.25262326944132</v>
       </c>
       <c r="F88" t="n">
-        <v>7.381699474382899</v>
+        <v>6.670473214808973</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.189077850350769</v>
+        <v>-7.115342000746167</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.596650640728741</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.72220807881939</v>
+        <v>-23.86521530275956</v>
       </c>
       <c r="F89" t="n">
-        <v>7.216945935422619</v>
+        <v>6.51632444115049</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.86247726366107</v>
+        <v>-6.794318735067044</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.157247542355549</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.93023486202545</v>
+        <v>-25.17584646333624</v>
       </c>
       <c r="F90" t="n">
-        <v>7.527469174222678</v>
+        <v>6.785004680068393</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.273287542228751</v>
+        <v>-7.17923243861379</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.756006883354408</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.66931163309761</v>
+        <v>-26.91237023535426</v>
       </c>
       <c r="F91" t="n">
-        <v>7.633176427366774</v>
+        <v>6.895844115926446</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.796452780430245</v>
+        <v>-6.727980036568018</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.406516125192839</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.664054894063</v>
+        <v>-28.89750374603381</v>
       </c>
       <c r="F92" t="n">
-        <v>7.325926264277147</v>
+        <v>6.642953194235664</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.056623022501026</v>
+        <v>-6.979522451066101</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.105127784871208</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.52728597298324</v>
+        <v>-30.75862696419654</v>
       </c>
       <c r="F93" t="n">
-        <v>7.378504952489519</v>
+        <v>6.650991868180484</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.293603612885231</v>
+        <v>-6.319002680398179</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.848706856489407</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.50486522492312</v>
+        <v>-32.75940577677196</v>
       </c>
       <c r="F94" t="n">
-        <v>7.323019773046283</v>
+        <v>6.631484336946312</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.664678752328272</v>
+        <v>-6.640588915099496</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.626928904161376</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.86671665757051</v>
+        <v>-35.06395219988111</v>
       </c>
       <c r="F95" t="n">
-        <v>7.296494767488946</v>
+        <v>6.575501649995092</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.999406475728803</v>
+        <v>-6.072788833156679</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.421568566962999</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.30603524613238</v>
+        <v>-37.47781935171867</v>
       </c>
       <c r="F96" t="n">
-        <v>7.047034029142698</v>
+        <v>6.356467423453015</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.921533458426217</v>
+        <v>-6.02433422033945</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.222172678631431</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.27336322494719</v>
+        <v>-39.47993357918394</v>
       </c>
       <c r="F97" t="n">
-        <v>6.985028882884284</v>
+        <v>6.27542606886273</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.490259910516919</v>
+        <v>-5.627061382910115</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.00006867682534</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.68796354574388</v>
+        <v>-41.90035997474521</v>
       </c>
       <c r="F98" t="n">
-        <v>6.911947648421768</v>
+        <v>6.192342315029137</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.672570227587954</v>
+        <v>-5.813116098593883</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.756108211153467</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.07558063038378</v>
+        <v>-44.22305232959299</v>
       </c>
       <c r="F99" t="n">
-        <v>6.735280113875517</v>
+        <v>6.0336897891931</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.405683634159368</v>
+        <v>-5.557331777975081</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.457423582962567</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.18801060159345</v>
+        <v>-46.35815816932452</v>
       </c>
       <c r="F100" t="n">
-        <v>6.460158461959486</v>
+        <v>5.772157947626781</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.46425859707325</v>
+        <v>-5.623330076600222</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.128358063536801</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.62175186914475</v>
+        <v>-48.79383709769639</v>
       </c>
       <c r="F101" t="n">
-        <v>6.444316775520996</v>
+        <v>5.722930888941891</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.462320936252675</v>
+        <v>-5.662803369668026</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.720836000573477</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.1150631146259</v>
+        <v>-51.21959206051424</v>
       </c>
       <c r="F102" t="n">
-        <v>5.682868442246209</v>
+        <v>5.060093780670983</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.144047054170315</v>
+        <v>-5.354047591751601</v>
       </c>
     </row>
   </sheetData>
